--- a/DIC_list_A.xlsx
+++ b/DIC_list_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanke\Quiz_Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77E6B45-F8B4-48CA-8238-E456A933BDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16EBF6F-74D4-411E-851D-B4B7701BA448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27660" windowHeight="15030" xr2:uid="{DFA42607-8057-4023-8519-0A3EE59F9943}"/>
+    <workbookView xWindow="1140" yWindow="1170" windowWidth="27660" windowHeight="15030" xr2:uid="{DFA42607-8057-4023-8519-0A3EE59F9943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="1">
   <si>
     <t>A</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E54AF89-5B4A-4EA3-A7D0-B5F2440DE98D}">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +438,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>50495154</v>
+        <v>38370528</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -446,356 +446,1715 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>50548192</v>
+        <v>38378471</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>50076726</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>50211254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>50300825</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>50301229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>50306050</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>50311663</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>50338611</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>50338754</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>50347047</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>50347288</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>50347375</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>50348949</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>50350247</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A16" s="1">
+        <v>50352940</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>50355990</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>50356382</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>50358581</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>50361311</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>50372672</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>50375823</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>50394739</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>50413641</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>50415808</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>50417075</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>50420022</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>50428585</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>50442942</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>50461360</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>50465208</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>50475282</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>50479162</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>50480606</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>50483743</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>50487567</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>50488238</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>50495662</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>50496127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>50496372</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>50496792</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>50496921</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>50518445</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>50524743</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>50524764</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>50531601</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>50538617</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>50539289</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>50540661</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>50540891</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50542158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50542224</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>50542228</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>50544974</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>50544983</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>50544994</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>50544995</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>50545036</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>50545051</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>50545054</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>50545065</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>50545218</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>50545690</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>50546459</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>50547815</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>50556587</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>50557933</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>50557962</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>50559828</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>50559891</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>50559896</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>50559911</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>50559934</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>50559941</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>50559943</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>50559948</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>50559951</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>50559954</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>50559958</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>50559961</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>50559962</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>50559980</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>50559981</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>50559984</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>50559985</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>50559990</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>50560043</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>50560077</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>50560088</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>50560092</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>50560094</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>50560105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>50560111</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>50560135</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>50560141</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>50560145</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>50560166</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>50560168</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>50560170</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>50560171</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>50560180</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>50560182</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>50560185</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>50560221</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>50560228</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>50560236</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>50560241</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>50560253</v>
+      </c>
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>50560259</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>50560264</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>50560270</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>50560273</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>50560276</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>50560326</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>50560437</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>50560439</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>50560441</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>50560444</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>50560450</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>50560451</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>50560452</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>50560454</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>50560458</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>50560459</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>50560462</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>50560464</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>50560466</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>50560476</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>50560479</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>50560480</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>50560482</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>50560483</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>50560488</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>50560490</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>50560491</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>50560492</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>50560493</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>50560495</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>50560497</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>50560499</v>
+      </c>
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>50560500</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>50560504</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>50560505</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>50560507</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>50560508</v>
+      </c>
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>50560509</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>50560510</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>50560514</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>50560515</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>50560517</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>50560518</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>50560519</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>50560520</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>50560524</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>50560525</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>50560526</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>50560527</v>
+      </c>
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>50560531</v>
+      </c>
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>50560532</v>
+      </c>
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>50560534</v>
+      </c>
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>50560535</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>50560542</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>50560547</v>
+      </c>
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>50560552</v>
+      </c>
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>50560553</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>50560555</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>50560556</v>
+      </c>
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>50560557</v>
+      </c>
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>50560561</v>
+      </c>
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>50560562</v>
+      </c>
+      <c r="B170" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>50560567</v>
+      </c>
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>50560568</v>
+      </c>
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>50560571</v>
+      </c>
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>50560573</v>
+      </c>
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>50560574</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>50560577</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>50560578</v>
+      </c>
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>50560580</v>
+      </c>
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>50560586</v>
+      </c>
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>50560589</v>
+      </c>
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>50560593</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>50560594</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>50560596</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>50560598</v>
+      </c>
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>50560599</v>
+      </c>
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>50560600</v>
+      </c>
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>50560675</v>
+      </c>
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>50560677</v>
+      </c>
+      <c r="B188" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>50560685</v>
+      </c>
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>50560686</v>
+      </c>
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>50560688</v>
+      </c>
+      <c r="B191" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>50560694</v>
+      </c>
+      <c r="B192" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>50560696</v>
+      </c>
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>50560698</v>
+      </c>
+      <c r="B194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>50560699</v>
+      </c>
+      <c r="B195" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>50560701</v>
+      </c>
+      <c r="B196" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>50560703</v>
+      </c>
+      <c r="B197" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>50560708</v>
+      </c>
+      <c r="B198" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>50560715</v>
+      </c>
+      <c r="B199" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>50560719</v>
+      </c>
+      <c r="B200" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>50560724</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>50560730</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>50560736</v>
+      </c>
+      <c r="B203" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>50560740</v>
+      </c>
+      <c r="B204" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>50560746</v>
+      </c>
+      <c r="B205" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>50560751</v>
+      </c>
+      <c r="B206" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>50560754</v>
+      </c>
+      <c r="B207" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>50563882</v>
+      </c>
+      <c r="B208" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>50563978</v>
+      </c>
+      <c r="B209" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>50563983</v>
+      </c>
+      <c r="B210" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>50563988</v>
+      </c>
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>50565976</v>
+      </c>
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>50567285</v>
+      </c>
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>50568057</v>
+      </c>
+      <c r="B214" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>50568862</v>
+      </c>
+      <c r="B215" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DIC_list_A.xlsx
+++ b/DIC_list_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanke\Quiz_Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16EBF6F-74D4-411E-851D-B4B7701BA448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A9059B-52F7-4278-B784-55BA12CB7B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1170" windowWidth="27660" windowHeight="15030" xr2:uid="{DFA42607-8057-4023-8519-0A3EE59F9943}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
